--- a/src/data/Business.xlsx
+++ b/src/data/Business.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F7674FD-36A7-4020-98D9-C802310DBF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D96342F-41D5-40CB-9297-47F9CB905A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Business ID</t>
   </si>
@@ -73,49 +73,31 @@
     <t>core</t>
   </si>
   <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Lynne Apple</t>
+    <t>Business 1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>Bill August</t>
-  </si>
-  <si>
-    <t>D-1;D-2;D-3</t>
-  </si>
-  <si>
-    <t>Jack Able</t>
-  </si>
-  <si>
-    <t>I-10</t>
-  </si>
-  <si>
-    <t>D-3;D-19;D-4</t>
-  </si>
-  <si>
-    <t>A-9</t>
-  </si>
-  <si>
-    <t>desktop</t>
-  </si>
-  <si>
-    <t>George Itto</t>
-  </si>
-  <si>
-    <t>I-1</t>
-  </si>
-  <si>
-    <t>I-2</t>
-  </si>
-  <si>
-    <t>I-3</t>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>Business 2</t>
+  </si>
+  <si>
+    <t>A-1;A-3</t>
+  </si>
+  <si>
+    <t>Business 3</t>
+  </si>
+  <si>
+    <t>D-2</t>
+  </si>
+  <si>
+    <t>Business 4</t>
+  </si>
+  <si>
+    <t>I-4</t>
   </si>
   <si>
     <t>support</t>
@@ -477,7 +459,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,17 +524,14 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -562,17 +541,14 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -582,23 +558,11 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -608,14 +572,11 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -625,15 +586,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
@@ -642,22 +595,13 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -665,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/Business.xlsx
+++ b/src/data/Business.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D96342F-41D5-40CB-9297-47F9CB905A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00000S22-CIObrain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F52004-2521-4B2D-A874-8D78340D7769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="3648" windowWidth="20868" windowHeight="6996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Business ID</t>
   </si>
@@ -49,71 +54,142 @@
     <t>Application Connections</t>
   </si>
   <si>
-    <t xml:space="preserve">Type </t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Business Function</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>Business 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>A-1</t>
-  </si>
-  <si>
-    <t>Business 2</t>
-  </si>
-  <si>
-    <t>A-1;A-3</t>
-  </si>
-  <si>
-    <t>Business 3</t>
-  </si>
-  <si>
     <t>D-2</t>
   </si>
   <si>
-    <t>Business 4</t>
-  </si>
-  <si>
-    <t>I-4</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Core Business</t>
+  </si>
+  <si>
+    <t>Back Office</t>
+  </si>
+  <si>
+    <t>Order Intake</t>
+  </si>
+  <si>
+    <t>Product Assembly</t>
+  </si>
+  <si>
+    <t>Project Assignment</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>Business Leader</t>
+  </si>
+  <si>
+    <t>Line of Business</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>Level-1 Context Diagram Name</t>
+  </si>
+  <si>
+    <t>Level-1 Process Name</t>
+  </si>
+  <si>
+    <t>Functional Order</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>D-2;D-1</t>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D-3</t>
+  </si>
+  <si>
+    <t>John Orderson</t>
+  </si>
+  <si>
+    <t>Grace Production</t>
+  </si>
+  <si>
+    <t>Mary Projection</t>
+  </si>
+  <si>
+    <t>Bill Adjucitation</t>
+  </si>
+  <si>
+    <t>m-20</t>
+  </si>
+  <si>
+    <t>Order Intake CD</t>
+  </si>
+  <si>
+    <t>Product Assembly CD</t>
+  </si>
+  <si>
+    <t>Project Assignment CD</t>
+  </si>
+  <si>
+    <t>Adjustments CD</t>
+  </si>
+  <si>
+    <t>Order Intake Process</t>
+  </si>
+  <si>
+    <t>Product Assembly Process</t>
+  </si>
+  <si>
+    <t>Project Assignment Process</t>
+  </si>
+  <si>
+    <t>Adjustments Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,9 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,161 +534,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
